--- a/sens_Price petroleum in Kenya/case_0.107.xlsx
+++ b/sens_Price petroleum in Kenya/case_0.107.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\sens_Price petroleum in Kenya\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\sens_Price petroleum in Kenya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC84869-FAA3-44D4-A027-BA129C49877F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B4CCB3-5CCC-4297-A1DB-73B9AA1C8A44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>
@@ -677,7 +677,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Z</t>
+    <t>Z,VA,S</t>
   </si>
   <si>
     <t>Decrease in Water Footprint</t>
@@ -2519,7 +2519,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20" t="s">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="F20" s="55">
         <v>0</v>
